--- a/Product/StaticData/Gun.xlsx
+++ b/Product/StaticData/Gun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12960" tabRatio="613" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="613"/>
   </bookViews>
   <sheets>
     <sheet name="guns" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>weaponName</t>
   </si>
@@ -114,10 +114,22 @@
     <t>每个弹夹弹药量</t>
   </si>
   <si>
+    <t>AK12</t>
+  </si>
+  <si>
+    <t>Projectile_Shotgun</t>
+  </si>
+  <si>
+    <t>M4A1</t>
+  </si>
+  <si>
+    <t>Scar</t>
+  </si>
+  <si>
+    <t>SG552</t>
+  </si>
+  <si>
     <t>M870</t>
-  </si>
-  <si>
-    <t>Projectile_Shotgun</t>
   </si>
   <si>
     <t>id</t>
@@ -739,12 +751,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1105,8 +1114,8 @@
   <sheetPr/>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1199,8 +1208,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:12">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1212,7 +1221,7 @@
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1221,10 +1230,10 @@
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1237,14 +1246,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="27" spans="1:12">
+    <row r="4" s="1" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="1">
@@ -1275,29 +1284,157 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
+    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
+    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="7" s="1" customFormat="1" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" s="1" customFormat="1" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
@@ -1322,7 +1459,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
@@ -1330,10 +1467,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
